--- a/Ugain_Jain_3151433/src/test/java/TestData/data.xlsx
+++ b/Ugain_Jain_3151433/src/test/java/TestData/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ugainjain\Documents\API-Testing\Ugain_Jain_3151433\src\test\java\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{A0F8ABBB-8F12-46A8-A2BC-72D5FB50717D}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
+  <xr:revisionPtr documentId="13_ncr:1_{A43C327A-2F46-4A68-BDE3-CF6B1285152F}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
   <bookViews>
     <workbookView windowHeight="10420" windowWidth="19420" xWindow="-110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-110"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>id</t>
   </si>
@@ -46,25 +46,46 @@
     <t>qwert123</t>
   </si>
   <si>
-    <t>409046072</t>
-  </si>
-  <si>
-    <t>409046111</t>
+    <t>tasklistid</t>
+  </si>
+  <si>
+    <t>tasktitle</t>
+  </si>
+  <si>
+    <t>taskqwerty</t>
+  </si>
+  <si>
+    <t>completed</t>
+  </si>
+  <si>
+    <t>task_revision</t>
+  </si>
+  <si>
+    <t>task_id</t>
+  </si>
+  <si>
+    <t>tasktitleupd1</t>
+  </si>
+  <si>
+    <t>qerty2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>5545149146</t>
+  </si>
+  <si>
+    <t>5545245859</t>
+  </si>
+  <si>
+    <t>5545246910</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
     <t>3</t>
-  </si>
-  <si>
-    <t>409046295</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>409046317</t>
   </si>
 </sst>
 </file>
@@ -417,18 +438,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="18.36328125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="8.90625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="20.6328125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -444,22 +467,67 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>14</v>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>409060521</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2">
+        <v>408484263</v>
       </c>
     </row>
   </sheetData>

--- a/Ugain_Jain_3151433/src/test/java/TestData/data.xlsx
+++ b/Ugain_Jain_3151433/src/test/java/TestData/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ugainjain\Documents\API-Testing\Ugain_Jain_3151433\src\test\java\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{A43C327A-2F46-4A68-BDE3-CF6B1285152F}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
+  <xr:revisionPtr documentId="13_ncr:1_{2F64E846-B069-467F-8552-2B3EF58C65CA}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
   <bookViews>
     <workbookView windowHeight="10420" windowWidth="19420" xWindow="-110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-110"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
   <si>
     <t>id</t>
   </si>
@@ -76,16 +76,34 @@
     <t>5545149146</t>
   </si>
   <si>
-    <t>5545245859</t>
-  </si>
-  <si>
-    <t>5545246910</t>
+    <t>409135121</t>
+  </si>
+  <si>
+    <t>5547976278</t>
+  </si>
+  <si>
+    <t>409135838</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
     <t>3</t>
+  </si>
+  <si>
+    <t>5548006147</t>
+  </si>
+  <si>
+    <t>409136008</t>
+  </si>
+  <si>
+    <t>5548012152</t>
+  </si>
+  <si>
+    <t>409136050</t>
+  </si>
+  <si>
+    <t>5548013411</t>
   </si>
 </sst>
 </file>
@@ -493,14 +511,14 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>409060521</v>
+      <c r="A2" t="s">
+        <v>26</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -509,7 +527,7 @@
         <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -518,7 +536,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
         <v>17</v>
